--- a/план продаж.xlsx
+++ b/план продаж.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\PycharmProjects\bonus_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD9753-F021-44E7-A51E-CDAE14CF4D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D16B48-AE11-46C9-A5BC-F747CD0E3398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -388,23 +388,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
